--- a/DATAs/AlGaN_HEMT/AlGaN_AlGaN_AlN_HEMT/nnp/2DEG_DensityMobilityInterplay/2DEHG_density/OneDim/sim_post_process_data.xlsx
+++ b/DATAs/AlGaN_HEMT/AlGaN_AlGaN_AlN_HEMT/nnp/2DEG_DensityMobilityInterplay/2DEHG_density/OneDim/sim_post_process_data.xlsx
@@ -20079,7 +20079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20148,6 +20148,578 @@
       </c>
       <c r="H2" t="n">
         <v>12500878000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8785350600000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8785350600000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.0204816e-46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14643887000000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.5648033e-46</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14429067000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9731969500000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9731969500000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.4583466e-55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15594111000000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0068712e-54</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15379313000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>125</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10294562000000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10294562000000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.1246908e-60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16158958000000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.3593925e-60</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15944304000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>150</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10667246000000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10667246000000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.8590905e-63</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16533094000000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.5796116e-63</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16318515000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>175</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10932231000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10932231000000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.3692291e-66</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16799041000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0922037e-65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16584419000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>200</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11130261000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11130261000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.5593845e-67</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16997726000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.0311599e-67</v>
+      </c>
+      <c r="H8" t="n">
+        <v>16783000000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>225</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11283829000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11283829000000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.4108802e-69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17151756000000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.5592742e-68</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16936971000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>250</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11406374000000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11406374000000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.740023499999999e-70</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17274634000000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.1335032e-69</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17059812000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>275</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11506416000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11506416000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.7847687e-71</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17374923000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.3681533e-69</v>
+      </c>
+      <c r="H11" t="n">
+        <v>17160073000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>300</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11589620000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11589620000000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.0110432e-71</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17458315000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.2524595e-69</v>
+      </c>
+      <c r="H12" t="n">
+        <v>17243437000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>325</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11659898000000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11659898000000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.3889247e-72</v>
+      </c>
+      <c r="F13" t="n">
+        <v>17528738000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.221354e-69</v>
+      </c>
+      <c r="H13" t="n">
+        <v>17313797000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>350</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11720038000000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11720038000000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.775638e-72</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17588994000000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.2071841e-69</v>
+      </c>
+      <c r="H14" t="n">
+        <v>17373977000000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>375</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11772081000000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11772081000000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.890764e-73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17641129000000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.1979987e-69</v>
+      </c>
+      <c r="H15" t="n">
+        <v>17426093000000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>400</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11817555000000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11817555000000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.0515355e-73</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17686678000000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.1911064e-69</v>
+      </c>
+      <c r="H16" t="n">
+        <v>17471632000000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>425</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11857628000000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11857627000000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.5052813e-73</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17726813000000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.1856956e-69</v>
+      </c>
+      <c r="H17" t="n">
+        <v>17511758000000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>450</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11893205000000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11893204000000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.1183013e-74</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17762442000000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.1812412e-69</v>
+      </c>
+      <c r="H18" t="n">
+        <v>17547381000000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>475</v>
+      </c>
+      <c r="C19" t="n">
+        <v>11925003000000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11925002000000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.7191487e-74</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17794284000000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.1775122e-69</v>
+      </c>
+      <c r="H19" t="n">
+        <v>17579217000000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>500</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11953590000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11953587000000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.9201081e-74</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17822908000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.1743501e-69</v>
+      </c>
+      <c r="H20" t="n">
+        <v>17607828000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>525</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11979429000000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>11979424000000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.9059341e-74</v>
+      </c>
+      <c r="F21" t="n">
+        <v>17848778000000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.1716443e-69</v>
+      </c>
+      <c r="H21" t="n">
+        <v>17633689000000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>550</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12002896000000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12002888000000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.3020943e-74</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17872272000000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6.1693071e-69</v>
+      </c>
+      <c r="H22" t="n">
+        <v>17657173000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>575</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12024303000000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12024291000000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9.253436499999999e-75</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17893704000000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.167273e-69</v>
+      </c>
+      <c r="H23" t="n">
+        <v>17678590000000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>600</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12043910000000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12043891000000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6.8048461e-75</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17913331000000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6.165491200000001e-69</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17698197000000</v>
       </c>
     </row>
   </sheetData>
